--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="districts" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="fosas" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="__post_processing" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -19,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -42,6 +41,11 @@
       <sz val="10"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
@@ -53,6 +57,11 @@
       <name val="Times New Roman"/>
       <charset val="1"/>
       <family val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <sz val="10"/>
     </font>
     <font>
@@ -162,82 +171,121 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -318,16 +366,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>5</col>
-      <colOff>543960</colOff>
+      <col>7</col>
+      <colOff>658440</colOff>
       <row>0</row>
-      <rowOff>69840</rowOff>
+      <rowOff>51480</rowOff>
     </from>
     <to>
-      <col>7</col>
-      <colOff>464040</colOff>
+      <col>9</col>
+      <colOff>578520</colOff>
       <row>9</row>
-      <rowOff>76320</rowOff>
+      <rowOff>57600</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -342,8 +390,8 @@
       </blipFill>
       <spPr>
         <a:xfrm>
-          <a:off x="4761000" y="69840"/>
-          <a:ext cx="1545840" cy="1469520"/>
+          <a:off x="7315920" y="51480"/>
+          <a:ext cx="1545480" cy="1469160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -370,9 +418,9 @@
     </from>
     <to>
       <col>7</col>
-      <colOff>739080</colOff>
+      <colOff>738720</colOff>
       <row>2</row>
-      <rowOff>1167840</rowOff>
+      <rowOff>1167480</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -388,7 +436,7 @@
       <spPr>
         <a:xfrm>
           <a:off x="12031560" y="23400"/>
-          <a:ext cx="1545840" cy="1469520"/>
+          <a:ext cx="1545480" cy="1469160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -516,185 +564,313 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="17.17" customWidth="1" style="14" min="1" max="1"/>
-    <col width="9.140000000000001" customWidth="1" style="14" min="2" max="2"/>
-    <col width="10.45" customWidth="1" style="14" min="3" max="3"/>
+    <col width="17.17" customWidth="1" style="23" min="1" max="1"/>
+    <col width="17" customWidth="1" style="23" min="2" max="2"/>
+    <col width="15" customWidth="1" style="23" min="3" max="3"/>
+    <col width="12" customWidth="1" style="24" min="4" max="4"/>
+    <col width="23.09" customWidth="1" style="23" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2" ht="12.8" customHeight="1" s="15">
-      <c r="B2" s="16" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="24">
+      <c r="F1" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1" s="25" t="inlineStr"/>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="24">
+      <c r="B2" s="26" t="inlineStr">
         <is>
           <t>Ministère</t>
         </is>
       </c>
-    </row>
-    <row r="3"/>
-    <row r="4" ht="12.8" customHeight="1" s="15">
-      <c r="A4" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="F2" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="25" t="inlineStr"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="24">
+      <c r="F3" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="25" t="inlineStr"/>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="24">
+      <c r="A4" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C4" s="18" t="n"/>
-      <c r="D4" s="18" t="n"/>
-      <c r="E4" s="18" t="n"/>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="15">
-      <c r="A5" s="16" t="inlineStr"/>
-      <c r="B5" s="19" t="inlineStr">
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>settlement</t>
+        </is>
+      </c>
+      <c r="E4" s="28" t="inlineStr">
+        <is>
+          <t>total fosa</t>
+        </is>
+      </c>
+      <c r="F4" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="24">
+      <c r="A5" s="26" t="inlineStr"/>
+      <c r="B5" s="29" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C5" s="19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D5" s="20" t="inlineStr">
+      <c r="C5" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="31" t="inlineStr">
         <is>
           <t>urban</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="15">
-      <c r="A6" s="16" t="inlineStr"/>
-      <c r="B6" s="19" t="inlineStr">
+      <c r="E5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="25" t="inlineStr"/>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="24">
+      <c r="A6" s="26" t="inlineStr"/>
+      <c r="B6" s="29" t="inlineStr">
         <is>
           <t>District B</t>
         </is>
       </c>
-      <c r="C6" s="19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" s="20" t="inlineStr">
+      <c r="C6" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="31" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="15">
-      <c r="A7" s="16" t="n"/>
-      <c r="E7" s="16" t="inlineStr">
-        <is>
-          <t>end group</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="15">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="E6" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="25" t="inlineStr"/>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="24">
+      <c r="A7" s="26" t="n"/>
+      <c r="B7" s="32">
+        <f>COUNT(E5:E6)</f>
+        <v/>
+      </c>
+      <c r="C7" s="26">
+        <f>SUM(C5:C6)</f>
+        <v/>
+      </c>
+      <c r="E7" s="32">
+        <f>SUM(E5:E6)</f>
+        <v/>
+      </c>
+      <c r="F7" s="25" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="24">
+      <c r="A8" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="28" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C8" s="18" t="n"/>
-      <c r="D8" s="18" t="n"/>
-      <c r="E8" s="18" t="n"/>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="15">
-      <c r="A9" s="16" t="inlineStr"/>
-      <c r="B9" s="19" t="inlineStr">
+      <c r="C8" s="28" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="D8" s="28" t="inlineStr">
+        <is>
+          <t>settlement</t>
+        </is>
+      </c>
+      <c r="E8" s="28" t="inlineStr">
+        <is>
+          <t>total fosa</t>
+        </is>
+      </c>
+      <c r="F8" s="25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="24">
+      <c r="A9" s="26" t="inlineStr"/>
+      <c r="B9" s="29" t="inlineStr">
         <is>
           <t>District C</t>
         </is>
       </c>
-      <c r="C9" s="19" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="C9" s="30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" s="31" t="inlineStr">
         <is>
           <t>urban</t>
         </is>
       </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="15">
-      <c r="A10" s="16" t="n"/>
-      <c r="E10" s="16" t="inlineStr">
-        <is>
-          <t>end group</t>
-        </is>
+      <c r="E9" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" s="25" t="inlineStr"/>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="24">
+      <c r="A10" s="26" t="n"/>
+      <c r="B10" s="32">
+        <f>COUNT(E9:E9)</f>
+        <v/>
+      </c>
+      <c r="C10" s="26">
+        <f>SUM(C9:C9)</f>
+        <v/>
+      </c>
+      <c r="E10" s="32">
+        <f>SUM(E9:E9)</f>
+        <v/>
+      </c>
+      <c r="F10" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="A11" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="28" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C11" s="18" t="n"/>
-      <c r="D11" s="18" t="n"/>
-      <c r="E11" s="18" t="n"/>
+      <c r="C11" s="28" t="inlineStr">
+        <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="D11" s="28" t="inlineStr">
+        <is>
+          <t>settlement</t>
+        </is>
+      </c>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>total fosa</t>
+        </is>
+      </c>
+      <c r="F11" s="25" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="inlineStr"/>
-      <c r="B12" s="19" t="inlineStr">
+      <c r="A12" s="26" t="inlineStr"/>
+      <c r="B12" s="29" t="inlineStr">
         <is>
           <t>District D</t>
         </is>
       </c>
-      <c r="C12" s="19" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D12" s="20" t="inlineStr">
+      <c r="C12" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="31" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
       </c>
+      <c r="E12" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" s="25" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="inlineStr"/>
-      <c r="B13" s="19" t="inlineStr">
+      <c r="A13" s="26" t="inlineStr"/>
+      <c r="B13" s="29" t="inlineStr">
         <is>
           <t>District E</t>
         </is>
       </c>
-      <c r="C13" s="19" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D13" s="20" t="inlineStr">
+      <c r="C13" s="30" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="31" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
       </c>
+      <c r="E13" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="25" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" s="25" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="n"/>
-      <c r="E14" s="16" t="inlineStr">
-        <is>
-          <t>end group</t>
-        </is>
+      <c r="A14" s="26" t="n"/>
+      <c r="B14" s="32">
+        <f>COUNT(E12:E13)</f>
+        <v/>
+      </c>
+      <c r="C14" s="26">
+        <f>SUM(C12:C13)</f>
+        <v/>
+      </c>
+      <c r="E14" s="32">
+        <f>SUM(E12:E13)</f>
+        <v/>
+      </c>
+      <c r="F14" s="25" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" s="25" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -719,474 +895,505 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="D4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11" customWidth="1" style="14" min="1" max="1"/>
-    <col width="12" customWidth="1" style="14" min="2" max="2"/>
-    <col width="12" customWidth="1" style="15" min="3" max="3"/>
-    <col hidden="1" width="54.9" customWidth="1" style="14" min="5" max="5"/>
-    <col width="15" customWidth="1" style="14" min="6" max="6"/>
+    <col width="11" customWidth="1" style="23" min="1" max="1"/>
+    <col width="12" customWidth="1" style="23" min="2" max="2"/>
+    <col width="12" customWidth="1" style="24" min="3" max="3"/>
+    <col hidden="1" width="54.9" customWidth="1" style="23" min="5" max="5"/>
+    <col width="15" customWidth="1" style="23" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1"/>
-    <row r="2" ht="12.8" customHeight="1" s="15">
-      <c r="A2" s="16" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="24">
+      <c r="A2" s="26" t="inlineStr">
         <is>
           <t>Ministère</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="93.34999999999999" customHeight="1" s="15">
-      <c r="A3" s="16" t="n"/>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="15">
-      <c r="A4" s="21" t="inlineStr">
+    <row r="3" ht="93.34999999999999" customHeight="1" s="24">
+      <c r="A3" s="26" t="n"/>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="24">
+      <c r="A4" s="33" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="B4" s="22" t="inlineStr">
+      <c r="B4" s="34" t="inlineStr">
         <is>
           <t>District</t>
         </is>
       </c>
-      <c r="C4" s="22" t="inlineStr">
+      <c r="C4" s="34" t="inlineStr">
         <is>
           <t>Fosa</t>
         </is>
       </c>
-      <c r="D4" s="22" t="inlineStr">
+      <c r="D4" s="34" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="E4" s="22" t="n"/>
-      <c r="F4" s="23" t="inlineStr">
+      <c r="E4" s="34" t="n"/>
+      <c r="F4" s="35" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="15">
-      <c r="A5" s="17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="G4" s="36" t="inlineStr">
+        <is>
+          <t>Subsides</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="24">
+      <c r="A5" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="28" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
-      <c r="D5" s="18" t="n"/>
-      <c r="E5" s="18" t="inlineStr">
+      <c r="C5" s="28" t="n"/>
+      <c r="D5" s="28" t="n"/>
+      <c r="E5" s="28" t="inlineStr">
         <is>
           <t>settlement from another sheet</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="15">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="F5" s="37" t="n"/>
+      <c r="G5" s="37" t="n"/>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="24">
+      <c r="A6" s="26" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B6" s="16" t="inlineStr">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C6" s="16" t="inlineStr">
+      <c r="C6" s="26" t="inlineStr">
         <is>
           <t>fosa AA CS</t>
         </is>
       </c>
-      <c r="D6" s="24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39">
         <f>VLOOKUP(B6, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="39">
         <f>IF(E6="urban", 10, 20)</f>
         <v/>
       </c>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="15">
-      <c r="A7" s="16" t="inlineStr">
+      <c r="G6" s="26">
+        <f>E6+F6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="24">
+      <c r="A7" s="26" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C7" s="16" t="inlineStr">
+      <c r="C7" s="26" t="inlineStr">
         <is>
           <t>fosa AB CS</t>
         </is>
       </c>
-      <c r="D7" s="24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E7" s="25">
+      <c r="D7" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="39">
         <f>VLOOKUP(B7, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="39">
         <f>IF(E7="urban", 10, 20)</f>
         <v/>
       </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="15">
-      <c r="A8" s="16" t="inlineStr">
+      <c r="G7" s="26">
+        <f>E7+F7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="24">
+      <c r="A8" s="26" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C8" s="16" t="inlineStr">
+      <c r="C8" s="26" t="inlineStr">
         <is>
           <t>fosa AC CS</t>
         </is>
       </c>
-      <c r="D8" s="24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E8" s="25">
+      <c r="D8" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="39">
         <f>VLOOKUP(B8, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="39">
         <f>IF(E8="urban", 10, 20)</f>
         <v/>
       </c>
-    </row>
-    <row r="9" ht="15.65" customHeight="1" s="15">
-      <c r="A9" s="16" t="inlineStr">
+      <c r="G8" s="26">
+        <f>E8+F8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15.65" customHeight="1" s="24">
+      <c r="A9" s="26" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="26" t="inlineStr">
         <is>
           <t>fosa AD CS</t>
         </is>
       </c>
-      <c r="D9" s="24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39">
         <f>VLOOKUP(B9, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="39">
         <f>IF(E9="urban", 10, 20)</f>
         <v/>
       </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="15">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="G9" s="26">
+        <f>E9+F9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="24">
+      <c r="A10" s="26" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="26" t="inlineStr">
         <is>
           <t>District B</t>
         </is>
       </c>
-      <c r="C10" s="16" t="inlineStr">
+      <c r="C10" s="26" t="inlineStr">
         <is>
           <t>fosa BA CS</t>
         </is>
       </c>
-      <c r="D10" s="24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E10" s="25">
+      <c r="D10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="39">
         <f>VLOOKUP(B10, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="39">
         <f>IF(E10="urban", 10, 20)</f>
         <v/>
       </c>
-    </row>
-    <row r="11" ht="12.8" customHeight="1" s="15">
-      <c r="A11" s="16" t="inlineStr">
+      <c r="G10" s="26">
+        <f>E10+F10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="24">
+      <c r="A11" s="26" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B11" s="16" t="inlineStr">
+      <c r="B11" s="26" t="inlineStr">
         <is>
           <t>District B</t>
         </is>
       </c>
-      <c r="C11" s="16" t="inlineStr">
+      <c r="C11" s="26" t="inlineStr">
         <is>
           <t>fosa BB CS</t>
         </is>
       </c>
-      <c r="D11" s="24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E11" s="25">
+      <c r="D11" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="39">
         <f>VLOOKUP(B11, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="39">
         <f>IF(E11="urban", 10, 20)</f>
         <v/>
       </c>
-    </row>
-    <row r="12" ht="12.8" customHeight="1" s="15">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="G11" s="26">
+        <f>E11+F11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="24">
+      <c r="A12" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="28" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C12" s="18" t="n"/>
-      <c r="D12" s="18" t="n"/>
-      <c r="E12" s="18" t="inlineStr">
+      <c r="C12" s="28" t="n"/>
+      <c r="D12" s="28" t="n"/>
+      <c r="E12" s="28" t="inlineStr">
         <is>
           <t>settlement from another sheet</t>
         </is>
       </c>
+      <c r="F12" s="37" t="n"/>
+      <c r="G12" s="37" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="inlineStr">
+      <c r="A13" s="26" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="26" t="inlineStr">
         <is>
           <t>District C</t>
         </is>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C13" s="26" t="inlineStr">
         <is>
           <t>fosa CA CS</t>
         </is>
       </c>
-      <c r="D13" s="24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E13" s="25">
+      <c r="D13" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="39">
         <f>VLOOKUP(B13, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="39">
         <f>IF(E13="urban", 10, 20)</f>
         <v/>
       </c>
+      <c r="G13" s="26">
+        <f>E13+F13</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="26" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="26" t="inlineStr">
         <is>
           <t>District C</t>
         </is>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="26" t="inlineStr">
         <is>
           <t>fosa CB CS</t>
         </is>
       </c>
-      <c r="D14" s="24" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E14" s="25">
+      <c r="D14" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="E14" s="39">
         <f>VLOOKUP(B14, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="39">
         <f>IF(E14="urban", 10, 20)</f>
         <v/>
       </c>
+      <c r="G14" s="26">
+        <f>E14+F14</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="A15" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="28" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C15" s="18" t="n"/>
-      <c r="D15" s="18" t="n"/>
-      <c r="E15" s="18" t="inlineStr">
+      <c r="C15" s="28" t="n"/>
+      <c r="D15" s="28" t="n"/>
+      <c r="E15" s="28" t="inlineStr">
         <is>
           <t>settlement from another sheet</t>
         </is>
       </c>
+      <c r="F15" s="37" t="n"/>
+      <c r="G15" s="37" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="A16" s="26" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B16" s="16" t="inlineStr">
+      <c r="B16" s="26" t="inlineStr">
         <is>
           <t>District D</t>
         </is>
       </c>
-      <c r="C16" s="16" t="inlineStr">
+      <c r="C16" s="26" t="inlineStr">
         <is>
           <t>fosa DA CS</t>
         </is>
       </c>
-      <c r="D16" s="24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E16" s="25">
+      <c r="D16" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="39">
         <f>VLOOKUP(B16, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="39">
         <f>IF(E16="urban", 10, 20)</f>
         <v/>
       </c>
+      <c r="G16" s="26">
+        <f>E16+F16</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="inlineStr">
+      <c r="A17" s="26" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B17" s="16" t="inlineStr">
+      <c r="B17" s="26" t="inlineStr">
         <is>
           <t>District D</t>
         </is>
       </c>
-      <c r="C17" s="16" t="inlineStr">
+      <c r="C17" s="26" t="inlineStr">
         <is>
           <t>fosa DB CS</t>
         </is>
       </c>
-      <c r="D17" s="24" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E17" s="25">
+      <c r="D17" s="38" t="n">
+        <v>18</v>
+      </c>
+      <c r="E17" s="39">
         <f>VLOOKUP(B17, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="39">
         <f>IF(E17="urban", 10, 20)</f>
         <v/>
       </c>
+      <c r="G17" s="26">
+        <f>E17+F17</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="A18" s="26" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B18" s="16" t="inlineStr">
+      <c r="B18" s="26" t="inlineStr">
         <is>
           <t>District E</t>
         </is>
       </c>
-      <c r="C18" s="16" t="inlineStr">
+      <c r="C18" s="26" t="inlineStr">
         <is>
           <t>fosa EA CS</t>
         </is>
       </c>
-      <c r="D18" s="24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" s="25">
+      <c r="D18" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="39">
         <f>VLOOKUP(B18, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="39">
         <f>IF(E18="urban", 10, 20)</f>
         <v/>
       </c>
+      <c r="G18" s="26">
+        <f>E18+F18</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="26" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B19" s="16" t="inlineStr">
+      <c r="B19" s="26" t="inlineStr">
         <is>
           <t>District E</t>
         </is>
       </c>
-      <c r="C19" s="16" t="inlineStr">
+      <c r="C19" s="26" t="inlineStr">
         <is>
           <t>fosa EB CS</t>
         </is>
       </c>
-      <c r="D19" s="24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E19" s="25">
+      <c r="D19" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" s="39">
         <f>VLOOKUP(B19, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="39">
         <f>IF(E19="urban", 10, 20)</f>
+        <v/>
+      </c>
+      <c r="G19" s="26">
+        <f>E19+F19</f>
         <v/>
       </c>
     </row>
@@ -1204,183 +1411,4 @@
   </headerFooter>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="19.21" customWidth="1" style="14" min="1" max="1"/>
-    <col width="4.27" customWidth="1" style="14" min="4" max="4"/>
-    <col width="86.89" customWidth="1" style="14" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="15">
-      <c r="A1" s="26" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="B1" s="26" t="inlineStr">
-        <is>
-          <t>sheet</t>
-        </is>
-      </c>
-      <c r="C1" s="26" t="inlineStr">
-        <is>
-          <t>column</t>
-        </is>
-      </c>
-      <c r="D1" s="26" t="inlineStr">
-        <is>
-          <t>arg</t>
-        </is>
-      </c>
-      <c r="E1" s="26" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="15">
-      <c r="A2" s="14" t="inlineStr">
-        <is>
-          <t>HIDE_COLUMN</t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="inlineStr">
-        <is>
-          <t>fosas</t>
-        </is>
-      </c>
-      <c r="C2" s="14" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E2" s="14" t="inlineStr">
-        <is>
-          <t>hide vlookup on settlement, just want to use for price calculation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="15">
-      <c r="A3" s="14" t="inlineStr">
-        <is>
-          <t>FIT_COLUMN</t>
-        </is>
-      </c>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>fosas</t>
-        </is>
-      </c>
-      <c r="C3" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="14" t="n"/>
-      <c r="E3" s="14" t="inlineStr">
-        <is>
-          <t>fit names for region, district and fosa so everything fit</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="15">
-      <c r="A4" s="14" t="inlineStr">
-        <is>
-          <t>FIT_COLUMN</t>
-        </is>
-      </c>
-      <c r="B4" s="14" t="inlineStr">
-        <is>
-          <t>fosas</t>
-        </is>
-      </c>
-      <c r="C4" s="14" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="14" t="n"/>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="15">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>FIT_COLUMN</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="inlineStr">
-        <is>
-          <t>fosas</t>
-        </is>
-      </c>
-      <c r="C5" s="14" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="14" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="15">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>FIT_FIXED_COLUMN</t>
-        </is>
-      </c>
-      <c r="B6" s="14" t="inlineStr">
-        <is>
-          <t>fosas</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="E6" s="14" t="inlineStr">
-        <is>
-          <t>use fixed width since it’s a formula, allow to keep the formula wide in the template but “compact” in output</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="15">
-      <c r="A7" s="14" t="inlineStr">
-        <is>
-          <t>ACTIVE_SHEET</t>
-        </is>
-      </c>
-      <c r="B7" s="14" t="inlineStr">
-        <is>
-          <t>fosas</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -42,7 +42,14 @@
     </font>
     <font>
       <name val="Times New Roman"/>
+      <charset val="1"/>
       <family val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Courier New"/>
+      <charset val="1"/>
+      <family val="3"/>
       <sz val="10"/>
     </font>
     <font>
@@ -51,12 +58,6 @@
       <family val="2"/>
       <b val="1"/>
       <color rgb="FFFAFAFA"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="1"/>
-      <family val="1"/>
       <sz val="10"/>
     </font>
     <font>
@@ -98,14 +99,8 @@
       <color rgb="FFFF0000"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Courier New"/>
-      <charset val="1"/>
-      <family val="3"/>
-      <sz val="10"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -128,6 +123,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF43A047"/>
+        <bgColor rgb="FF757575"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAB91"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -184,13 +191,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -199,16 +209,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -221,9 +228,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -232,13 +236,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -251,10 +255,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -263,10 +270,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -286,9 +296,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -338,7 +345,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFAB91"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -350,7 +357,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF43A047"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -360,6 +367,22 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">equivalent to the formula on the left
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,9 +396,9 @@
     </from>
     <to>
       <col>9</col>
-      <colOff>578520</colOff>
+      <colOff>577440</colOff>
       <row>9</row>
-      <rowOff>57600</rowOff>
+      <rowOff>56520</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -391,7 +414,7 @@
       <spPr>
         <a:xfrm>
           <a:off x="7315920" y="51480"/>
-          <a:ext cx="1545480" cy="1469160"/>
+          <a:ext cx="1544400" cy="1468080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -418,9 +441,9 @@
     </from>
     <to>
       <col>7</col>
-      <colOff>738720</colOff>
+      <colOff>737640</colOff>
       <row>2</row>
-      <rowOff>1167480</rowOff>
+      <rowOff>1166400</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -436,7 +459,7 @@
       <spPr>
         <a:xfrm>
           <a:off x="12031560" y="23400"/>
-          <a:ext cx="1545480" cy="1469160"/>
+          <a:ext cx="1544400" cy="1468080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -564,45 +587,56 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="17.17" customWidth="1" style="23" min="1" max="1"/>
-    <col width="17" customWidth="1" style="23" min="2" max="2"/>
-    <col width="15" customWidth="1" style="23" min="3" max="3"/>
-    <col width="12" customWidth="1" style="24" min="4" max="4"/>
-    <col width="23.09" customWidth="1" style="23" min="5" max="5"/>
+    <col width="17.17" customWidth="1" style="22" min="1" max="1"/>
+    <col width="17" customWidth="1" style="22" min="2" max="2"/>
+    <col width="20" customWidth="1" style="22" min="3" max="3"/>
+    <col width="12" customWidth="1" style="23" min="4" max="4"/>
+    <col width="23.09" customWidth="1" style="22" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="24">
-      <c r="F1" s="25" t="n">
+    <row r="1" ht="12.8" customHeight="1" s="23">
+      <c r="F1" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="G1" s="25" t="inlineStr"/>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="24">
-      <c r="B2" s="26" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr"/>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="23">
+      <c r="B2" s="25" t="inlineStr">
         <is>
           <t>Ministère</t>
         </is>
       </c>
-      <c r="F2" s="25" t="n">
+      <c r="C2" s="24" t="inlineStr">
+        <is>
+          <t>https://google.com</t>
+        </is>
+      </c>
+      <c r="D2" s="24" t="inlineStr">
+        <is>
+          <t>link name</t>
+        </is>
+      </c>
+      <c r="F2" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="25" t="inlineStr"/>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="24">
-      <c r="F3" s="25" t="n">
+      <c r="G2" s="24" t="inlineStr"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="23">
+      <c r="B3" s="26" t="n"/>
+      <c r="F3" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="25" t="inlineStr"/>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="24">
+      <c r="G3" s="24" t="inlineStr"/>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="23">
       <c r="A4" s="27" t="n">
         <v>1</v>
       </c>
@@ -626,15 +660,25 @@
           <t>total fosa</t>
         </is>
       </c>
-      <c r="F4" s="25" t="n">
+      <c r="F4" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="24" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="24">
-      <c r="A5" s="26" t="inlineStr"/>
+      <c r="K4" s="25" t="inlineStr">
+        <is>
+          <t>E + F district</t>
+        </is>
+      </c>
+      <c r="L4" s="25" t="inlineStr">
+        <is>
+          <t>SUM all district of region</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="23">
+      <c r="A5" s="25" t="inlineStr"/>
       <c r="B5" s="29" t="inlineStr">
         <is>
           <t>District A</t>
@@ -648,16 +692,24 @@
           <t>urban</t>
         </is>
       </c>
-      <c r="E5" s="26" t="n">
+      <c r="E5" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="25" t="n">
+      <c r="F5" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="25" t="inlineStr"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="24">
-      <c r="A6" s="26" t="inlineStr"/>
+      <c r="G5" s="24" t="inlineStr"/>
+      <c r="K5" s="32">
+        <f>SUM(E5:F5)</f>
+        <v/>
+      </c>
+      <c r="L5" s="25">
+        <f>SUM(E5:F5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="23">
+      <c r="A6" s="25" t="inlineStr"/>
       <c r="B6" s="29" t="inlineStr">
         <is>
           <t>District B</t>
@@ -671,36 +723,48 @@
           <t>rural</t>
         </is>
       </c>
-      <c r="E6" s="26" t="n">
+      <c r="E6" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="25" t="inlineStr"/>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="24">
-      <c r="A7" s="26" t="n"/>
-      <c r="B7" s="32">
+      <c r="G6" s="24" t="inlineStr"/>
+      <c r="K6" s="32">
+        <f>SUM(E6:F6)</f>
+        <v/>
+      </c>
+      <c r="L6" s="25">
+        <f>SUM(E6:F6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="23">
+      <c r="A7" s="25" t="n"/>
+      <c r="B7" s="25">
         <f>COUNT(E5:E6)</f>
         <v/>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <f>SUM(C5:C6)</f>
         <v/>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="25">
         <f>SUM(E5:E6)</f>
         <v/>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="24" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="24">
+      <c r="L7" s="33">
+        <f>SUM(E4:E6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="23">
       <c r="A8" s="27" t="n">
         <v>2</v>
       </c>
@@ -724,15 +788,25 @@
           <t>total fosa</t>
         </is>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="24" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="24">
-      <c r="A9" s="26" t="inlineStr"/>
+      <c r="K8" s="25" t="inlineStr">
+        <is>
+          <t>E + F district</t>
+        </is>
+      </c>
+      <c r="L8" s="25" t="inlineStr">
+        <is>
+          <t>SUM all district of region</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="23">
+      <c r="A9" s="25" t="inlineStr"/>
       <c r="B9" s="29" t="inlineStr">
         <is>
           <t>District C</t>
@@ -746,33 +820,45 @@
           <t>urban</t>
         </is>
       </c>
-      <c r="E9" s="26" t="n">
+      <c r="E9" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="25" t="n">
+      <c r="F9" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="G9" s="25" t="inlineStr"/>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="24">
-      <c r="A10" s="26" t="n"/>
-      <c r="B10" s="32">
+      <c r="G9" s="24" t="inlineStr"/>
+      <c r="K9" s="32">
+        <f>SUM(E9:F9)</f>
+        <v/>
+      </c>
+      <c r="L9" s="25">
+        <f>SUM(E9:F9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="23">
+      <c r="A10" s="25" t="n"/>
+      <c r="B10" s="25">
         <f>COUNT(E9:E9)</f>
         <v/>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <f>SUM(C9:C9)</f>
         <v/>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="25">
         <f>SUM(E9:E9)</f>
         <v/>
       </c>
-      <c r="F10" s="25" t="n">
+      <c r="F10" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="24" t="n">
         <v>8</v>
+      </c>
+      <c r="L10" s="33">
+        <f>SUM(E7:E9)</f>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -799,15 +885,25 @@
           <t>total fosa</t>
         </is>
       </c>
-      <c r="F11" s="25" t="n">
+      <c r="F11" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="24" t="n">
         <v>11</v>
       </c>
+      <c r="K11" s="25" t="inlineStr">
+        <is>
+          <t>E + F district</t>
+        </is>
+      </c>
+      <c r="L11" s="25" t="inlineStr">
+        <is>
+          <t>SUM all district of region</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="inlineStr"/>
+      <c r="A12" s="25" t="inlineStr"/>
       <c r="B12" s="29" t="inlineStr">
         <is>
           <t>District D</t>
@@ -821,16 +917,24 @@
           <t>rural</t>
         </is>
       </c>
-      <c r="E12" s="26" t="n">
+      <c r="E12" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="25" t="n">
+      <c r="F12" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="G12" s="25" t="inlineStr"/>
+      <c r="G12" s="24" t="inlineStr"/>
+      <c r="K12" s="32">
+        <f>SUM(E12:F12)</f>
+        <v/>
+      </c>
+      <c r="L12" s="25">
+        <f>SUM(E12:F12)</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="26" t="inlineStr"/>
+      <c r="A13" s="25" t="inlineStr"/>
       <c r="B13" s="29" t="inlineStr">
         <is>
           <t>District E</t>
@@ -844,36 +948,83 @@
           <t>rural</t>
         </is>
       </c>
-      <c r="E13" s="26" t="n">
+      <c r="E13" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="25" t="n">
+      <c r="F13" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="G13" s="25" t="inlineStr"/>
+      <c r="G13" s="24" t="inlineStr"/>
+      <c r="K13" s="32">
+        <f>SUM(E13:F13)</f>
+        <v/>
+      </c>
+      <c r="L13" s="25">
+        <f>SUM(E13:F13)</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="n"/>
-      <c r="B14" s="32">
-        <f>COUNT(E12:E13)</f>
-        <v/>
-      </c>
-      <c r="C14" s="26">
-        <f>SUM(C12:C13)</f>
-        <v/>
-      </c>
-      <c r="E14" s="32">
-        <f>SUM(E12:E13)</f>
-        <v/>
-      </c>
-      <c r="F14" s="25" t="n">
+      <c r="A14" s="25" t="inlineStr"/>
+      <c r="B14" s="29" t="inlineStr">
+        <is>
+          <t>District F</t>
+        </is>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" s="31" t="inlineStr">
+        <is>
+          <t>rural</t>
+        </is>
+      </c>
+      <c r="E14" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="24" t="inlineStr"/>
+      <c r="K14" s="32">
+        <f>SUM(E14:F14)</f>
+        <v/>
+      </c>
+      <c r="L14" s="25">
+        <f>SUM(E14:F14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="25" t="n"/>
+      <c r="B15" s="25">
+        <f>COUNT(E12:E14)</f>
+        <v/>
+      </c>
+      <c r="C15" s="25">
+        <f>SUM(C12:C14)</f>
+        <v/>
+      </c>
+      <c r="E15" s="25">
+        <f>SUM(E12:E14)</f>
+        <v/>
+      </c>
+      <c r="F15" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" s="24" t="n">
         <v>11</v>
       </c>
+      <c r="L15" s="33">
+        <f>SUM(E12:E14)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId2"/>
+  </hyperlinks>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -885,7 +1036,8 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -895,7 +1047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="D4" activePane="bottomLeft" state="frozen"/>
@@ -905,58 +1057,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11" customWidth="1" style="23" min="1" max="1"/>
-    <col width="12" customWidth="1" style="23" min="2" max="2"/>
-    <col width="12" customWidth="1" style="24" min="3" max="3"/>
-    <col hidden="1" width="54.9" customWidth="1" style="23" min="5" max="5"/>
-    <col width="15" customWidth="1" style="23" min="6" max="6"/>
+    <col width="11" customWidth="1" style="22" min="1" max="1"/>
+    <col width="12" customWidth="1" style="22" min="2" max="2"/>
+    <col width="12" customWidth="1" style="23" min="3" max="3"/>
+    <col hidden="1" width="54.9" customWidth="1" style="22" min="5" max="5"/>
+    <col width="15" customWidth="1" style="22" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1"/>
-    <row r="2" ht="12.8" customHeight="1" s="24">
-      <c r="A2" s="26" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="23">
+      <c r="A2" s="25" t="inlineStr">
         <is>
           <t>Ministère</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="93.34999999999999" customHeight="1" s="24">
-      <c r="A3" s="26" t="n"/>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="24">
-      <c r="A4" s="33" t="inlineStr">
+    <row r="3" ht="93.34999999999999" customHeight="1" s="23">
+      <c r="A3" s="25" t="n"/>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="23">
+      <c r="A4" s="34" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="B4" s="34" t="inlineStr">
+      <c r="B4" s="35" t="inlineStr">
         <is>
           <t>District</t>
         </is>
       </c>
-      <c r="C4" s="34" t="inlineStr">
+      <c r="C4" s="35" t="inlineStr">
         <is>
           <t>Fosa</t>
         </is>
       </c>
-      <c r="D4" s="34" t="inlineStr">
+      <c r="D4" s="35" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="E4" s="34" t="n"/>
-      <c r="F4" s="35" t="inlineStr">
+      <c r="E4" s="35" t="n"/>
+      <c r="F4" s="36" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="G4" s="36" t="inlineStr">
+      <c r="G4" s="37" t="inlineStr">
         <is>
           <t>Subsides</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="24">
+    <row r="5" ht="12.8" customHeight="1" s="23">
       <c r="A5" s="27" t="n">
         <v>1</v>
       </c>
@@ -972,202 +1124,202 @@
           <t>settlement from another sheet</t>
         </is>
       </c>
-      <c r="F5" s="37" t="n"/>
-      <c r="G5" s="37" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="24">
-      <c r="A6" s="26" t="inlineStr">
+      <c r="F5" s="38" t="n"/>
+      <c r="G5" s="38" t="n"/>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="23">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B6" s="26" t="inlineStr">
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C6" s="26" t="inlineStr">
+      <c r="C6" s="25" t="inlineStr">
         <is>
           <t>fosa AA CS</t>
         </is>
       </c>
-      <c r="D6" s="38" t="n">
+      <c r="D6" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="24">
         <f>VLOOKUP(B6, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="24">
         <f>IF(E6="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <f>E6+F6</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="24">
-      <c r="A7" s="26" t="inlineStr">
+    <row r="7" ht="12.8" customHeight="1" s="23">
+      <c r="A7" s="25" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B7" s="26" t="inlineStr">
+      <c r="B7" s="25" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C7" s="26" t="inlineStr">
+      <c r="C7" s="25" t="inlineStr">
         <is>
           <t>fosa AB CS</t>
         </is>
       </c>
-      <c r="D7" s="38" t="n">
+      <c r="D7" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="24">
         <f>VLOOKUP(B7, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="24">
         <f>IF(E7="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <f>E7+F7</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="24">
-      <c r="A8" s="26" t="inlineStr">
+    <row r="8" ht="12.8" customHeight="1" s="23">
+      <c r="A8" s="25" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B8" s="26" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C8" s="26" t="inlineStr">
+      <c r="C8" s="25" t="inlineStr">
         <is>
           <t>fosa AC CS</t>
         </is>
       </c>
-      <c r="D8" s="38" t="n">
+      <c r="D8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="24">
         <f>VLOOKUP(B8, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="24">
         <f>IF(E8="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <f>E8+F8</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.65" customHeight="1" s="24">
-      <c r="A9" s="26" t="inlineStr">
+    <row r="9" ht="15.65" customHeight="1" s="23">
+      <c r="A9" s="25" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B9" s="26" t="inlineStr">
+      <c r="B9" s="25" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C9" s="26" t="inlineStr">
+      <c r="C9" s="25" t="inlineStr">
         <is>
           <t>fosa AD CS</t>
         </is>
       </c>
-      <c r="D9" s="38" t="n">
+      <c r="D9" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="24">
         <f>VLOOKUP(B9, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="24">
         <f>IF(E9="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <f>E9+F9</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="24">
-      <c r="A10" s="26" t="inlineStr">
+    <row r="10" ht="12.8" customHeight="1" s="23">
+      <c r="A10" s="25" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B10" s="26" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>District B</t>
         </is>
       </c>
-      <c r="C10" s="26" t="inlineStr">
+      <c r="C10" s="25" t="inlineStr">
         <is>
           <t>fosa BA CS</t>
         </is>
       </c>
-      <c r="D10" s="38" t="n">
+      <c r="D10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="24">
         <f>VLOOKUP(B10, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="24">
         <f>IF(E10="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <f>E10+F10</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="24">
-      <c r="A11" s="26" t="inlineStr">
+    <row r="11" ht="12.8" customHeight="1" s="23">
+      <c r="A11" s="25" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B11" s="26" t="inlineStr">
+      <c r="B11" s="25" t="inlineStr">
         <is>
           <t>District B</t>
         </is>
       </c>
-      <c r="C11" s="26" t="inlineStr">
+      <c r="C11" s="25" t="inlineStr">
         <is>
           <t>fosa BB CS</t>
         </is>
       </c>
-      <c r="D11" s="38" t="n">
+      <c r="D11" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="24">
         <f>VLOOKUP(B11, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="24">
         <f>IF(E11="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <f>E11+F11</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="24">
+    <row r="12" ht="12.8" customHeight="1" s="23">
       <c r="A12" s="27" t="n">
         <v>2</v>
       </c>
@@ -1183,69 +1335,69 @@
           <t>settlement from another sheet</t>
         </is>
       </c>
-      <c r="F12" s="37" t="n"/>
-      <c r="G12" s="37" t="n"/>
+      <c r="F12" s="38" t="n"/>
+      <c r="G12" s="38" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="26" t="inlineStr">
+      <c r="A13" s="25" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="B13" s="26" t="inlineStr">
+      <c r="B13" s="25" t="inlineStr">
         <is>
           <t>District C</t>
         </is>
       </c>
-      <c r="C13" s="26" t="inlineStr">
+      <c r="C13" s="25" t="inlineStr">
         <is>
           <t>fosa CA CS</t>
         </is>
       </c>
-      <c r="D13" s="38" t="n">
+      <c r="D13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="24">
         <f>VLOOKUP(B13, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="24">
         <f>IF(E13="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <f>E13+F13</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="inlineStr">
+      <c r="A14" s="25" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="B14" s="26" t="inlineStr">
+      <c r="B14" s="25" t="inlineStr">
         <is>
           <t>District C</t>
         </is>
       </c>
-      <c r="C14" s="26" t="inlineStr">
+      <c r="C14" s="25" t="inlineStr">
         <is>
           <t>fosa CB CS</t>
         </is>
       </c>
-      <c r="D14" s="38" t="n">
+      <c r="D14" s="39" t="n">
         <v>18</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="24">
         <f>VLOOKUP(B14, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="24">
         <f>IF(E14="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <f>E14+F14</f>
         <v/>
       </c>
@@ -1266,134 +1418,198 @@
           <t>settlement from another sheet</t>
         </is>
       </c>
-      <c r="F15" s="37" t="n"/>
-      <c r="G15" s="37" t="n"/>
+      <c r="F15" s="38" t="n"/>
+      <c r="G15" s="38" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="26" t="inlineStr">
+      <c r="A16" s="25" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B16" s="26" t="inlineStr">
+      <c r="B16" s="25" t="inlineStr">
         <is>
           <t>District D</t>
         </is>
       </c>
-      <c r="C16" s="26" t="inlineStr">
+      <c r="C16" s="25" t="inlineStr">
         <is>
           <t>fosa DA CS</t>
         </is>
       </c>
-      <c r="D16" s="38" t="n">
+      <c r="D16" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="24">
         <f>VLOOKUP(B16, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="24">
         <f>IF(E16="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <f>E16+F16</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="26" t="inlineStr">
+      <c r="A17" s="25" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B17" s="26" t="inlineStr">
+      <c r="B17" s="25" t="inlineStr">
         <is>
           <t>District D</t>
         </is>
       </c>
-      <c r="C17" s="26" t="inlineStr">
+      <c r="C17" s="25" t="inlineStr">
         <is>
           <t>fosa DB CS</t>
         </is>
       </c>
-      <c r="D17" s="38" t="n">
+      <c r="D17" s="39" t="n">
         <v>18</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="24">
         <f>VLOOKUP(B17, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="24">
         <f>IF(E17="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <f>E17+F17</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="26" t="inlineStr">
+      <c r="A18" s="25" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B18" s="26" t="inlineStr">
+      <c r="B18" s="25" t="inlineStr">
         <is>
           <t>District E</t>
         </is>
       </c>
-      <c r="C18" s="26" t="inlineStr">
+      <c r="C18" s="25" t="inlineStr">
         <is>
           <t>fosa EA CS</t>
         </is>
       </c>
-      <c r="D18" s="38" t="n">
+      <c r="D18" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="24">
         <f>VLOOKUP(B18, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="24">
         <f>IF(E18="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <f>E18+F18</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="26" t="inlineStr">
+      <c r="A19" s="25" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B19" s="26" t="inlineStr">
+      <c r="B19" s="25" t="inlineStr">
         <is>
           <t>District E</t>
         </is>
       </c>
-      <c r="C19" s="26" t="inlineStr">
+      <c r="C19" s="25" t="inlineStr">
         <is>
           <t>fosa EB CS</t>
         </is>
       </c>
-      <c r="D19" s="38" t="n">
+      <c r="D19" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="24">
         <f>VLOOKUP(B19, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="24">
         <f>IF(E19="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <f>E19+F19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="25" t="inlineStr">
+        <is>
+          <t>Region 3</t>
+        </is>
+      </c>
+      <c r="B20" s="25" t="inlineStr">
+        <is>
+          <t>District F</t>
+        </is>
+      </c>
+      <c r="C20" s="25" t="inlineStr">
+        <is>
+          <t>fosa FA CS</t>
+        </is>
+      </c>
+      <c r="D20" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="24">
+        <f>VLOOKUP(B20, districts!B:D, 3, 0)</f>
+        <v/>
+      </c>
+      <c r="F20" s="24">
+        <f>IF(E20="urban", 10, 20)</f>
+        <v/>
+      </c>
+      <c r="G20" s="25">
+        <f>E20+F20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="25" t="inlineStr">
+        <is>
+          <t>Region 3</t>
+        </is>
+      </c>
+      <c r="B21" s="25" t="inlineStr">
+        <is>
+          <t>District F</t>
+        </is>
+      </c>
+      <c r="C21" s="25" t="inlineStr">
+        <is>
+          <t>fosa FB CS</t>
+        </is>
+      </c>
+      <c r="D21" s="39" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" s="24">
+        <f>VLOOKUP(B21, districts!B:D, 3, 0)</f>
+        <v/>
+      </c>
+      <c r="F21" s="24">
+        <f>IF(E21="urban", 10, 20)</f>
+        <v/>
+      </c>
+      <c r="G21" s="25">
+        <f>E21+F21</f>
         <v/>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -178,7 +178,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -235,9 +235,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -396,9 +393,9 @@
     </from>
     <to>
       <col>9</col>
-      <colOff>577440</colOff>
+      <colOff>577080</colOff>
       <row>9</row>
-      <rowOff>56520</rowOff>
+      <rowOff>56160</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -414,7 +411,7 @@
       <spPr>
         <a:xfrm>
           <a:off x="7315920" y="51480"/>
-          <a:ext cx="1544400" cy="1468080"/>
+          <a:ext cx="1544040" cy="1467720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -441,9 +438,9 @@
     </from>
     <to>
       <col>7</col>
-      <colOff>737640</colOff>
+      <colOff>737280</colOff>
       <row>2</row>
-      <rowOff>1166400</rowOff>
+      <rowOff>1166040</rowOff>
     </to>
     <pic>
       <nvPicPr>
@@ -459,7 +456,7 @@
       <spPr>
         <a:xfrm>
           <a:off x="12031560" y="23400"/>
-          <a:ext cx="1544400" cy="1468080"/>
+          <a:ext cx="1544040" cy="1467720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -587,437 +584,445 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="17.17" customWidth="1" style="22" min="1" max="1"/>
-    <col width="17" customWidth="1" style="22" min="2" max="2"/>
-    <col width="20" customWidth="1" style="22" min="3" max="3"/>
-    <col width="12" customWidth="1" style="23" min="4" max="4"/>
-    <col width="23.09" customWidth="1" style="22" min="5" max="5"/>
+    <col width="17.17" customWidth="1" style="21" min="1" max="1"/>
+    <col width="17" customWidth="1" style="21" min="2" max="2"/>
+    <col width="20" customWidth="1" style="21" min="3" max="3"/>
+    <col width="12" customWidth="1" style="22" min="4" max="4"/>
+    <col width="23.09" customWidth="1" style="21" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="23">
-      <c r="F1" s="24" t="n">
+    <row r="1" ht="12.8" customHeight="1" s="22">
+      <c r="F1" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="G1" s="24" t="inlineStr"/>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="23">
-      <c r="B2" s="25" t="inlineStr">
+      <c r="G1" s="23" t="inlineStr"/>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="22">
+      <c r="B2" s="24" t="inlineStr">
         <is>
           <t>Ministère</t>
         </is>
       </c>
-      <c r="C2" s="24" t="inlineStr">
+      <c r="C2" s="23" t="inlineStr">
         <is>
           <t>https://google.com</t>
         </is>
       </c>
-      <c r="D2" s="24" t="inlineStr">
+      <c r="D2" s="23" t="inlineStr">
         <is>
           <t>link name</t>
         </is>
       </c>
-      <c r="F2" s="24" t="n">
+      <c r="F2" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="24" t="inlineStr"/>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="23">
-      <c r="B3" s="26" t="n"/>
-      <c r="F3" s="24" t="n">
+      <c r="G2" s="23" t="inlineStr"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="22">
+      <c r="B3" s="25" t="n"/>
+      <c r="F3" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="24" t="inlineStr"/>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="23">
-      <c r="A4" s="27" t="n">
+      <c r="G3" s="23" t="inlineStr"/>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="22">
+      <c r="A4" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="inlineStr">
+      <c r="B4" s="27" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C4" s="28" t="inlineStr">
+      <c r="C4" s="27" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="D4" s="28" t="inlineStr">
+      <c r="D4" s="27" t="inlineStr">
         <is>
           <t>settlement</t>
         </is>
       </c>
-      <c r="E4" s="28" t="inlineStr">
+      <c r="E4" s="27" t="inlineStr">
         <is>
           <t>total fosa</t>
         </is>
       </c>
-      <c r="F4" s="24" t="n">
+      <c r="F4" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="24" t="n">
+      <c r="G4" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="K4" s="25" t="inlineStr">
+      <c r="K4" s="24" t="inlineStr">
         <is>
           <t>E + F district</t>
         </is>
       </c>
-      <c r="L4" s="25" t="inlineStr">
+      <c r="L4" s="24" t="inlineStr">
         <is>
           <t>SUM all district of region</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="23">
-      <c r="A5" s="25" t="inlineStr"/>
-      <c r="B5" s="29" t="inlineStr">
+    <row r="5" ht="12.8" customHeight="1" s="22">
+      <c r="A5" s="24" t="inlineStr"/>
+      <c r="B5" s="28" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C5" s="30" t="n">
+      <c r="C5" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="D5" s="31" t="inlineStr">
+      <c r="D5" s="30" t="inlineStr">
         <is>
           <t>urban</t>
         </is>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="24" t="n">
+      <c r="F5" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="24" t="inlineStr"/>
-      <c r="K5" s="32">
+      <c r="G5" s="23" t="inlineStr"/>
+      <c r="K5" s="31">
         <f>SUM(E5:F5)</f>
         <v/>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <f>SUM(E5:F5)</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="23">
-      <c r="A6" s="25" t="inlineStr"/>
-      <c r="B6" s="29" t="inlineStr">
+    <row r="6" ht="12.8" customHeight="1" s="22">
+      <c r="A6" s="24" t="inlineStr"/>
+      <c r="B6" s="28" t="inlineStr">
         <is>
           <t>District B</t>
         </is>
       </c>
-      <c r="C6" s="30" t="n">
+      <c r="C6" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="31" t="inlineStr">
+      <c r="D6" s="30" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="24" t="n">
+      <c r="F6" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="24" t="inlineStr"/>
-      <c r="K6" s="32">
+      <c r="G6" s="23" t="inlineStr"/>
+      <c r="K6" s="31">
         <f>SUM(E6:F6)</f>
         <v/>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="24">
         <f>SUM(E6:F6)</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="23">
-      <c r="A7" s="25" t="n"/>
-      <c r="B7" s="25">
+    <row r="7" ht="12.8" customHeight="1" s="22">
+      <c r="A7" s="24" t="n"/>
+      <c r="B7" s="24">
         <f>COUNT(E5:E6)</f>
         <v/>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <f>SUM(C5:C6)</f>
         <v/>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <f>SUM(E5:E6)</f>
         <v/>
       </c>
-      <c r="F7" s="24" t="n">
+      <c r="F7" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="G7" s="24" t="n">
+      <c r="G7" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="32">
         <f>SUM(E4:E6)</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="23">
-      <c r="A8" s="27" t="n">
+    <row r="8" ht="12.8" customHeight="1" s="22">
+      <c r="A8" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="28" t="inlineStr">
+      <c r="B8" s="27" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C8" s="28" t="inlineStr">
+      <c r="C8" s="27" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="D8" s="28" t="inlineStr">
+      <c r="D8" s="27" t="inlineStr">
         <is>
           <t>settlement</t>
         </is>
       </c>
-      <c r="E8" s="28" t="inlineStr">
+      <c r="E8" s="27" t="inlineStr">
         <is>
           <t>total fosa</t>
         </is>
       </c>
-      <c r="F8" s="24" t="n">
+      <c r="F8" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="G8" s="24" t="n">
+      <c r="G8" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="K8" s="25" t="inlineStr">
+      <c r="K8" s="24" t="inlineStr">
         <is>
           <t>E + F district</t>
         </is>
       </c>
-      <c r="L8" s="25" t="inlineStr">
+      <c r="L8" s="24" t="inlineStr">
         <is>
           <t>SUM all district of region</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="23">
-      <c r="A9" s="25" t="inlineStr"/>
-      <c r="B9" s="29" t="inlineStr">
+    <row r="9" ht="12.8" customHeight="1" s="22">
+      <c r="A9" s="24" t="inlineStr"/>
+      <c r="B9" s="28" t="inlineStr">
         <is>
           <t>District C</t>
         </is>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="D9" s="31" t="inlineStr">
+      <c r="D9" s="30" t="inlineStr">
         <is>
           <t>urban</t>
         </is>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="24" t="n">
+      <c r="F9" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="G9" s="24" t="inlineStr"/>
-      <c r="K9" s="32">
+      <c r="G9" s="23" t="inlineStr"/>
+      <c r="K9" s="31">
         <f>SUM(E9:F9)</f>
         <v/>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="24">
         <f>SUM(E9:F9)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="23">
-      <c r="A10" s="25" t="n"/>
-      <c r="B10" s="25">
+    <row r="10" ht="12.8" customHeight="1" s="22">
+      <c r="A10" s="24" t="n"/>
+      <c r="B10" s="24">
         <f>COUNT(E9:E9)</f>
         <v/>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <f>SUM(C9:C9)</f>
         <v/>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <f>SUM(E9:E9)</f>
         <v/>
       </c>
-      <c r="F10" s="24" t="n">
+      <c r="F10" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="G10" s="24" t="n">
+      <c r="G10" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="32">
         <f>SUM(E7:E9)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="n">
+      <c r="A11" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="28" t="inlineStr">
+      <c r="B11" s="27" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C11" s="28" t="inlineStr">
+      <c r="C11" s="27" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="D11" s="28" t="inlineStr">
+      <c r="D11" s="27" t="inlineStr">
         <is>
           <t>settlement</t>
         </is>
       </c>
-      <c r="E11" s="28" t="inlineStr">
+      <c r="E11" s="27" t="inlineStr">
         <is>
           <t>total fosa</t>
         </is>
       </c>
-      <c r="F11" s="24" t="n">
+      <c r="F11" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="G11" s="24" t="n">
+      <c r="G11" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="K11" s="25" t="inlineStr">
+      <c r="K11" s="24" t="inlineStr">
         <is>
           <t>E + F district</t>
         </is>
       </c>
-      <c r="L11" s="25" t="inlineStr">
+      <c r="L11" s="24" t="inlineStr">
         <is>
           <t>SUM all district of region</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="25" t="inlineStr"/>
-      <c r="B12" s="29" t="inlineStr">
+    <row r="12" ht="12.8" customHeight="1" s="22">
+      <c r="A12" s="24" t="inlineStr"/>
+      <c r="B12" s="28" t="inlineStr">
         <is>
           <t>District D</t>
         </is>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="29" t="n">
         <v>8</v>
       </c>
-      <c r="D12" s="31" t="inlineStr">
+      <c r="D12" s="30" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="24" t="n">
+      <c r="F12" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="G12" s="24" t="inlineStr"/>
-      <c r="K12" s="32">
+      <c r="G12" s="23" t="inlineStr"/>
+      <c r="K12" s="31">
         <f>SUM(E12:F12)</f>
         <v/>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="24">
         <f>SUM(E12:F12)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="inlineStr"/>
-      <c r="B13" s="29" t="inlineStr">
+      <c r="A13" s="24" t="inlineStr"/>
+      <c r="B13" s="28" t="inlineStr">
         <is>
           <t>District E</t>
         </is>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="29" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="31" t="inlineStr">
+      <c r="D13" s="30" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
       </c>
-      <c r="E13" s="25" t="n">
+      <c r="E13" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="24" t="n">
+      <c r="F13" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="G13" s="24" t="inlineStr"/>
-      <c r="K13" s="32">
+      <c r="G13" s="23" t="inlineStr"/>
+      <c r="K13" s="31">
         <f>SUM(E13:F13)</f>
         <v/>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="24">
         <f>SUM(E13:F13)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="inlineStr"/>
-      <c r="B14" s="29" t="inlineStr">
+      <c r="A14" s="24" t="inlineStr"/>
+      <c r="B14" s="28" t="inlineStr">
         <is>
           <t>District F</t>
         </is>
       </c>
-      <c r="C14" s="30" t="n">
+      <c r="C14" s="29" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="31" t="inlineStr">
+      <c r="D14" s="30" t="inlineStr">
         <is>
           <t>rural</t>
         </is>
       </c>
-      <c r="E14" s="25" t="n">
+      <c r="E14" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="24" t="n">
+      <c r="F14" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="G14" s="24" t="inlineStr"/>
-      <c r="K14" s="32">
+      <c r="G14" s="23" t="inlineStr"/>
+      <c r="K14" s="31">
         <f>SUM(E14:F14)</f>
         <v/>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="24">
         <f>SUM(E14:F14)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="n"/>
-      <c r="B15" s="25">
+      <c r="A15" s="24" t="n"/>
+      <c r="B15" s="24">
         <f>COUNT(E12:E14)</f>
         <v/>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <f>SUM(C12:C14)</f>
         <v/>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <f>SUM(E12:E14)</f>
         <v/>
       </c>
-      <c r="F15" s="24" t="n">
+      <c r="F15" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="G15" s="24" t="n">
+      <c r="G15" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="32">
         <f>SUM(E12:E14)</f>
         <v/>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="24" t="inlineStr">
+        <is>
+          <t>This is the end of the listing it’s a work in progress</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1057,558 +1062,558 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11" customWidth="1" style="22" min="1" max="1"/>
-    <col width="12" customWidth="1" style="22" min="2" max="2"/>
-    <col width="12" customWidth="1" style="23" min="3" max="3"/>
-    <col hidden="1" width="54.9" customWidth="1" style="22" min="5" max="5"/>
-    <col width="15" customWidth="1" style="22" min="6" max="6"/>
+    <col width="11" customWidth="1" style="21" min="1" max="1"/>
+    <col width="12" customWidth="1" style="21" min="2" max="2"/>
+    <col width="12" customWidth="1" style="22" min="3" max="3"/>
+    <col hidden="1" width="54.9" customWidth="1" style="21" min="5" max="5"/>
+    <col width="15" customWidth="1" style="21" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1"/>
-    <row r="2" ht="12.8" customHeight="1" s="23">
-      <c r="A2" s="25" t="inlineStr">
+    <row r="2" ht="12.8" customHeight="1" s="22">
+      <c r="A2" s="24" t="inlineStr">
         <is>
           <t>Ministère</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="93.34999999999999" customHeight="1" s="23">
-      <c r="A3" s="25" t="n"/>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="23">
-      <c r="A4" s="34" t="inlineStr">
+    <row r="3" ht="93.34999999999999" customHeight="1" s="22">
+      <c r="A3" s="24" t="n"/>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="22">
+      <c r="A4" s="33" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="B4" s="35" t="inlineStr">
+      <c r="B4" s="34" t="inlineStr">
         <is>
           <t>District</t>
         </is>
       </c>
-      <c r="C4" s="35" t="inlineStr">
+      <c r="C4" s="34" t="inlineStr">
         <is>
           <t>Fosa</t>
         </is>
       </c>
-      <c r="D4" s="35" t="inlineStr">
+      <c r="D4" s="34" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="E4" s="35" t="n"/>
-      <c r="F4" s="36" t="inlineStr">
+      <c r="E4" s="34" t="n"/>
+      <c r="F4" s="35" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="G4" s="37" t="inlineStr">
+      <c r="G4" s="36" t="inlineStr">
         <is>
           <t>Subsides</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="23">
-      <c r="A5" s="27" t="n">
+    <row r="5" ht="12.8" customHeight="1" s="22">
+      <c r="A5" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="28" t="inlineStr">
+      <c r="B5" s="27" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="C5" s="28" t="n"/>
-      <c r="D5" s="28" t="n"/>
-      <c r="E5" s="28" t="inlineStr">
+      <c r="C5" s="27" t="n"/>
+      <c r="D5" s="27" t="n"/>
+      <c r="E5" s="27" t="inlineStr">
         <is>
           <t>settlement from another sheet</t>
         </is>
       </c>
-      <c r="F5" s="38" t="n"/>
-      <c r="G5" s="38" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="23">
-      <c r="A6" s="25" t="inlineStr">
+      <c r="F5" s="37" t="n"/>
+      <c r="G5" s="37" t="n"/>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="22">
+      <c r="A6" s="24" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B6" s="25" t="inlineStr">
+      <c r="B6" s="24" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C6" s="25" t="inlineStr">
+      <c r="C6" s="24" t="inlineStr">
         <is>
           <t>fosa AA CS</t>
         </is>
       </c>
-      <c r="D6" s="39" t="n">
+      <c r="D6" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f>VLOOKUP(B6, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <f>IF(E6="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <f>E6+F6</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="23">
-      <c r="A7" s="25" t="inlineStr">
+    <row r="7" ht="12.8" customHeight="1" s="22">
+      <c r="A7" s="24" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B7" s="25" t="inlineStr">
+      <c r="B7" s="24" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C7" s="25" t="inlineStr">
+      <c r="C7" s="24" t="inlineStr">
         <is>
           <t>fosa AB CS</t>
         </is>
       </c>
-      <c r="D7" s="39" t="n">
+      <c r="D7" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <f>VLOOKUP(B7, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <f>IF(E7="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <f>E7+F7</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="23">
-      <c r="A8" s="25" t="inlineStr">
+    <row r="8" ht="12.8" customHeight="1" s="22">
+      <c r="A8" s="24" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B8" s="25" t="inlineStr">
+      <c r="B8" s="24" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C8" s="25" t="inlineStr">
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>fosa AC CS</t>
         </is>
       </c>
-      <c r="D8" s="39" t="n">
+      <c r="D8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <f>VLOOKUP(B8, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <f>IF(E8="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <f>E8+F8</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15.65" customHeight="1" s="23">
-      <c r="A9" s="25" t="inlineStr">
+    <row r="9" ht="15.65" customHeight="1" s="22">
+      <c r="A9" s="24" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B9" s="25" t="inlineStr">
+      <c r="B9" s="24" t="inlineStr">
         <is>
           <t>District A</t>
         </is>
       </c>
-      <c r="C9" s="25" t="inlineStr">
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>fosa AD CS</t>
         </is>
       </c>
-      <c r="D9" s="39" t="n">
+      <c r="D9" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <f>VLOOKUP(B9, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <f>IF(E9="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <f>E9+F9</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="23">
-      <c r="A10" s="25" t="inlineStr">
+    <row r="10" ht="12.8" customHeight="1" s="22">
+      <c r="A10" s="24" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B10" s="25" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>District B</t>
         </is>
       </c>
-      <c r="C10" s="25" t="inlineStr">
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>fosa BA CS</t>
         </is>
       </c>
-      <c r="D10" s="39" t="n">
+      <c r="D10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <f>VLOOKUP(B10, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <f>IF(E10="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <f>E10+F10</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="23">
-      <c r="A11" s="25" t="inlineStr">
+    <row r="11" ht="12.8" customHeight="1" s="22">
+      <c r="A11" s="24" t="inlineStr">
         <is>
           <t>Region 1</t>
         </is>
       </c>
-      <c r="B11" s="25" t="inlineStr">
+      <c r="B11" s="24" t="inlineStr">
         <is>
           <t>District B</t>
         </is>
       </c>
-      <c r="C11" s="25" t="inlineStr">
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>fosa BB CS</t>
         </is>
       </c>
-      <c r="D11" s="39" t="n">
+      <c r="D11" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f>VLOOKUP(B11, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <f>IF(E11="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <f>E11+F11</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" s="23">
-      <c r="A12" s="27" t="n">
+    <row r="12" ht="12.8" customHeight="1" s="22">
+      <c r="A12" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="28" t="inlineStr">
+      <c r="B12" s="27" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="C12" s="28" t="n"/>
-      <c r="D12" s="28" t="n"/>
-      <c r="E12" s="28" t="inlineStr">
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="inlineStr">
         <is>
           <t>settlement from another sheet</t>
         </is>
       </c>
-      <c r="F12" s="38" t="n"/>
-      <c r="G12" s="38" t="n"/>
+      <c r="F12" s="37" t="n"/>
+      <c r="G12" s="37" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="inlineStr">
+      <c r="A13" s="24" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="B13" s="25" t="inlineStr">
+      <c r="B13" s="24" t="inlineStr">
         <is>
           <t>District C</t>
         </is>
       </c>
-      <c r="C13" s="25" t="inlineStr">
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>fosa CA CS</t>
         </is>
       </c>
-      <c r="D13" s="39" t="n">
+      <c r="D13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <f>VLOOKUP(B13, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <f>IF(E13="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <f>E13+F13</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="inlineStr">
+      <c r="A14" s="24" t="inlineStr">
         <is>
           <t>Region 2</t>
         </is>
       </c>
-      <c r="B14" s="25" t="inlineStr">
+      <c r="B14" s="24" t="inlineStr">
         <is>
           <t>District C</t>
         </is>
       </c>
-      <c r="C14" s="25" t="inlineStr">
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>fosa CB CS</t>
         </is>
       </c>
-      <c r="D14" s="39" t="n">
+      <c r="D14" s="38" t="n">
         <v>18</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <f>VLOOKUP(B14, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <f>IF(E14="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <f>E14+F14</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="n">
+      <c r="A15" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="28" t="inlineStr">
+      <c r="B15" s="27" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="C15" s="28" t="n"/>
-      <c r="D15" s="28" t="n"/>
-      <c r="E15" s="28" t="inlineStr">
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="27" t="n"/>
+      <c r="E15" s="27" t="inlineStr">
         <is>
           <t>settlement from another sheet</t>
         </is>
       </c>
-      <c r="F15" s="38" t="n"/>
-      <c r="G15" s="38" t="n"/>
+      <c r="F15" s="37" t="n"/>
+      <c r="G15" s="37" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="inlineStr">
+      <c r="A16" s="24" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B16" s="25" t="inlineStr">
+      <c r="B16" s="24" t="inlineStr">
         <is>
           <t>District D</t>
         </is>
       </c>
-      <c r="C16" s="25" t="inlineStr">
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>fosa DA CS</t>
         </is>
       </c>
-      <c r="D16" s="39" t="n">
+      <c r="D16" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <f>VLOOKUP(B16, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <f>IF(E16="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <f>E16+F16</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="inlineStr">
+      <c r="A17" s="24" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B17" s="25" t="inlineStr">
+      <c r="B17" s="24" t="inlineStr">
         <is>
           <t>District D</t>
         </is>
       </c>
-      <c r="C17" s="25" t="inlineStr">
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>fosa DB CS</t>
         </is>
       </c>
-      <c r="D17" s="39" t="n">
+      <c r="D17" s="38" t="n">
         <v>18</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <f>VLOOKUP(B17, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <f>IF(E17="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <f>E17+F17</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="inlineStr">
+      <c r="A18" s="24" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B18" s="25" t="inlineStr">
+      <c r="B18" s="24" t="inlineStr">
         <is>
           <t>District E</t>
         </is>
       </c>
-      <c r="C18" s="25" t="inlineStr">
+      <c r="C18" s="24" t="inlineStr">
         <is>
           <t>fosa EA CS</t>
         </is>
       </c>
-      <c r="D18" s="39" t="n">
+      <c r="D18" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <f>VLOOKUP(B18, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <f>IF(E18="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <f>E18+F18</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="inlineStr">
+      <c r="A19" s="24" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B19" s="25" t="inlineStr">
+      <c r="B19" s="24" t="inlineStr">
         <is>
           <t>District E</t>
         </is>
       </c>
-      <c r="C19" s="25" t="inlineStr">
+      <c r="C19" s="24" t="inlineStr">
         <is>
           <t>fosa EB CS</t>
         </is>
       </c>
-      <c r="D19" s="39" t="n">
+      <c r="D19" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <f>VLOOKUP(B19, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <f>IF(E19="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="24">
         <f>E19+F19</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="inlineStr">
+      <c r="A20" s="24" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B20" s="25" t="inlineStr">
+      <c r="B20" s="24" t="inlineStr">
         <is>
           <t>District F</t>
         </is>
       </c>
-      <c r="C20" s="25" t="inlineStr">
+      <c r="C20" s="24" t="inlineStr">
         <is>
           <t>fosa FA CS</t>
         </is>
       </c>
-      <c r="D20" s="39" t="n">
+      <c r="D20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <f>VLOOKUP(B20, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <f>IF(E20="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="24">
         <f>E20+F20</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="inlineStr">
+      <c r="A21" s="24" t="inlineStr">
         <is>
           <t>Region 3</t>
         </is>
       </c>
-      <c r="B21" s="25" t="inlineStr">
+      <c r="B21" s="24" t="inlineStr">
         <is>
           <t>District F</t>
         </is>
       </c>
-      <c r="C21" s="25" t="inlineStr">
+      <c r="C21" s="24" t="inlineStr">
         <is>
           <t>fosa FB CS</t>
         </is>
       </c>
-      <c r="D21" s="39" t="n">
+      <c r="D21" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <f>VLOOKUP(B21, districts!B:D, 3, 0)</f>
         <v/>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <f>IF(E21="urban", 10, 20)</f>
         <v/>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="24">
         <f>E21+F21</f>
         <v/>
       </c>
